--- a/sample/excel/Simple_vertical_appending.xlsx
+++ b/sample/excel/Simple_vertical_appending.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/928d0949f298cdc5/Documents/GitHub/rendr/sample/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{FDF896E1-41C0-494C-9966-58722B428472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F45F13AA-8B81-443B-A255-FC7B07798D2B}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{FDF896E1-41C0-494C-9966-58722B428472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{083281FE-219B-4E66-A647-62FAD4DCA5A4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,18 +694,57 @@
     <xf numFmtId="39" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="5" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="4" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="5" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="6" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -724,59 +763,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1161,8 +1161,8 @@
   </sheetPr>
   <dimension ref="A1:X155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -1193,26 +1193,26 @@
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
-      <c r="G1" s="64"/>
+      <c r="G1" s="54"/>
       <c r="H1" s="24"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="64"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="24"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="1:24" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -1221,23 +1221,23 @@
       <c r="B2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="64"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="24"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="64"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="24"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
     </row>
     <row r="3" spans="1:24" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -1247,47 +1247,47 @@
         <v>45</v>
       </c>
       <c r="C3" s="24"/>
-      <c r="D3" s="64"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="24"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="64"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="24"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
     </row>
     <row r="4" spans="1:24" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="54" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="64"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="24"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="64"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="24"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
     </row>
     <row r="5" spans="1:24" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -1296,73 +1296,73 @@
       <c r="B5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="24"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="64"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="24"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
     </row>
     <row r="6" spans="1:24" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="55" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="24"/>
-      <c r="D6" s="64"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="64"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
     </row>
     <row r="7" spans="1:24" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="24"/>
-      <c r="D7" s="64"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="64"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
     </row>
     <row r="8" spans="1:24" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -1371,149 +1371,149 @@
       <c r="B8" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="64"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
-      <c r="G8" s="64"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="64"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="54"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
     </row>
     <row r="9" spans="1:24" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="54" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="24"/>
-      <c r="D9" s="64"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="64"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
     </row>
     <row r="10" spans="1:24" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="55" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="64"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="64"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="X10" s="63"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="X10" s="53"/>
     </row>
     <row r="11" spans="1:24" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="55" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="24"/>
-      <c r="D11" s="64"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="64"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
     </row>
     <row r="12" spans="1:24" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="55" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="64"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="64"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
     </row>
     <row r="13" spans="1:24" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
     </row>
     <row r="14" spans="1:24" s="25" customFormat="1" ht="12.75" customHeight="1">
       <c r="A14" s="38"/>
@@ -1599,279 +1599,279 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="25" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="62" t="s">
+      <c r="H18" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="62" t="s">
+      <c r="I18" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="62" t="s">
+      <c r="J18" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="62" t="s">
+      <c r="K18" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="60" t="s">
+      <c r="L18" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="60"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="60"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="60"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="60"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="50"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="60"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="50"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="60"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
       <c r="L25" s="26"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
       <c r="L27" s="26"/>
     </row>
     <row r="28" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
       <c r="L28" s="26"/>
     </row>
     <row r="29" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
       <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
       <c r="L30" s="26"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
       <c r="L31" s="26"/>
     </row>
     <row r="32" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
       <c r="L32" s="26"/>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
       <c r="L33" s="26"/>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
       <c r="L34" s="26"/>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
       <c r="L35" s="26"/>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1">
@@ -3658,189 +3658,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
@@ -3851,6 +3844,13 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
